--- a/testData/LumaMagento_LoginData.xlsx
+++ b/testData/LumaMagento_LoginData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium\LumaMagento\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AD0E2A-4316-44F2-A9C5-68A68E44487B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2E3AA0-B5DD-4304-A6F0-D066B8618599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -438,7 +438,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
